--- a/data/RelaxationExampleData.xlsx
+++ b/data/RelaxationExampleData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">ts</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">timeunit</t>
   </si>
   <si>
+    <t xml:space="preserve">Cunit</t>
+  </si>
+  <si>
     <t xml:space="preserve">ϵ</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">"s"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nF"</t>
   </si>
   <si>
     <t xml:space="preserve">"GΩ"</t>
@@ -17651,10 +17657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17662,7 +17668,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="4" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="4" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17675,11 +17681,14 @@
       <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17688,24 +17697,28 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="5"/>
+      <c r="F2" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0"/>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/RelaxationExampleData.xlsx
+++ b/data/RelaxationExampleData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">ts</t>
   </si>
@@ -16559,7 +16559,7 @@
   <dimension ref="A1:ALJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17657,10 +17657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17668,7 +17668,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="4" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17687,7 +17687,13 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17698,7 +17704,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="F2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -17718,7 +17724,13 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
